--- a/Model_Eval_Summary.xlsx
+++ b/Model_Eval_Summary.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Jupyter Code\Git Hub\Online-Shopper-Intention-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA69F8-D723-4799-9A55-7BE623DA07F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92209B55-994B-4FEC-90B2-223FB00EB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1858D076-69DF-4634-B964-1F25900C2534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,25 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Over Sample</t>
-  </si>
-  <si>
-    <t>Down Sample</t>
-  </si>
-  <si>
-    <t>SMOTE</t>
-  </si>
-  <si>
-    <t>Log Reg</t>
-  </si>
-  <si>
-    <t>Random F</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>XGBoost</t>
   </si>
@@ -51,26 +35,341 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>0.696/0.78</t>
+    <t>LogReg</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Nomal</t>
+  </si>
+  <si>
+    <t>Normal_fs</t>
+  </si>
+  <si>
+    <t>DownSample</t>
+  </si>
+  <si>
+    <t>DownSample_fs</t>
+  </si>
+  <si>
+    <t>OverSample</t>
+  </si>
+  <si>
+    <t>OverSample_fs</t>
+  </si>
+  <si>
+    <t>Comparing F1 Score (w/o cw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrative_Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Informational</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Informational_Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProductRelated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProductRelated_Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BounceRates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ExitRates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PageValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SpecialDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_June</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_May</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month_Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperatingSystems_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browser_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrafficType_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VisitorType_New_Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VisitorType_Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VisitorType_Returning_Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree Feature Importance </t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>f_score</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Informational_Duration</t>
+  </si>
+  <si>
+    <t>Informational</t>
+  </si>
+  <si>
+    <t>SpecialDay</t>
+  </si>
+  <si>
+    <t>OperatingSystems</t>
+  </si>
+  <si>
+    <t>Administrative_Duration</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>VisitorType</t>
+  </si>
+  <si>
+    <t>ProductRelated</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>BounceRates</t>
+  </si>
+  <si>
+    <t>ProductRelated_Duration</t>
+  </si>
+  <si>
+    <t>TrafficType</t>
+  </si>
+  <si>
+    <t>ExitRates</t>
+  </si>
+  <si>
+    <t>PageValues</t>
+  </si>
+  <si>
+    <t>Random Forest (FS_2)</t>
+  </si>
+  <si>
+    <t>Random Forest (FS_stat)</t>
+  </si>
+  <si>
+    <t>SVM (class_weight)</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +380,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,7 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,12 +453,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,227 +787,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1D115-D4DD-49EC-826C-FF077D521B94}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H3">
+        <f>MAX(B3:G3)</f>
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H4">
+        <f>MAX(B4:G4)</f>
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H5">
+        <f>MAX(B5:G5)</f>
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="2">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.498</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H6">
+        <f>MAX(B6:G6)</f>
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H7">
+        <f>MAX(B7:G7)</f>
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ref="B8:G8" si="0">MAX(B3:B7)</f>
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.498</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD11B43-A3ED-43F0-8D40-D126FE94986F}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.52037999999999995</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3">
+        <v>4231.4254650000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>7.8529999999999989E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>468.20064500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>6.123E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>337.953441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.874</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.874</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5.4519999999999999E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6">
+        <v>284.75077900000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>237.85633999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4.3560000000000001E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>233.14005499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>3.8140000000000007E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>181.68217899999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.7719999999999997E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <v>169.21653699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>2.8660000000000005E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>148.684988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.282E-2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8">
+        <v>77.358502999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.0570000000000001E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7">
+        <v>69.262793000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.515E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7">
+        <v>65.873515999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.0499999999999999E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7">
+        <v>63.936216999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7">
+        <v>36.352573999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7">
+        <v>34.485779000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5.2611829999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F18">
+    <sortCondition descending="1" ref="F3:F18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
